--- a/cfp.xlsx
+++ b/cfp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>Conference</t>
   </si>
@@ -32,210 +32,204 @@
     <t>LCN 2014</t>
   </si>
   <si>
+    <t>MobiHoc 2015</t>
+  </si>
+  <si>
+    <t>Montreal  Canada</t>
+  </si>
+  <si>
+    <t>VTC 2015</t>
+  </si>
+  <si>
+    <t>Sep 7, 2014 - Sep 11, 2014</t>
+  </si>
+  <si>
+    <t>Dec 13, 2013 (Dec 6, 2013)</t>
+  </si>
+  <si>
+    <t>Jan 31, 2014 (Jan 24, 2014)</t>
+  </si>
+  <si>
+    <t>Maui, HI, USA</t>
+  </si>
+  <si>
+    <t>San Diego, USA</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Aug 17, 2014 - Aug 22, 2014</t>
+  </si>
+  <si>
+    <t>Mar 10, 2014 (Mar 5, 2014)</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Florence, Italy</t>
+  </si>
+  <si>
+    <t>st. Louis Missouri, USA</t>
+  </si>
+  <si>
+    <t>CCS 2014</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SIGCOMM 2014</t>
+  </si>
+  <si>
+    <t>Mar 10, 2014 (Mar 3, 2014)</t>
+  </si>
+  <si>
+    <t>Mar 9, 2015 - Mar 12, 2015</t>
+  </si>
+  <si>
+    <t>Oct 7, 2013 - Oct 11, 2013</t>
+  </si>
+  <si>
+    <t>May 11, 2015 - May 14, 2015</t>
+  </si>
+  <si>
+    <t>Jun 8, 2015 - Jun 12, 2015</t>
+  </si>
+  <si>
+    <t>INFOCOM 2015</t>
+  </si>
+  <si>
+    <t>Sep 21, 2014 - Sep 26, 2014</t>
+  </si>
+  <si>
+    <t>Jun 22, 2015 - Jun 25, 2015</t>
+  </si>
+  <si>
+    <t>Dec 5, 2014 (Nov 28, 2014)</t>
+  </si>
+  <si>
+    <t>Sep 30, 2014</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>London, UK</t>
+  </si>
+  <si>
+    <t>Jul 30, 2014 (Jul 23, 2014)</t>
+  </si>
+  <si>
+    <t>Aug 24, 2014</t>
+  </si>
+  <si>
+    <t>Madrid, Spain</t>
+  </si>
+  <si>
+    <t>Apr 26, 2015 - May 1, 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottsdale, Arizona, USA </t>
+  </si>
+  <si>
+    <t>Portland, USA</t>
+  </si>
+  <si>
+    <t>May 5, 2014 (Apr 25, 2014)</t>
+  </si>
+  <si>
+    <t>Apr 1, 2014</t>
+  </si>
+  <si>
+    <t>PERCOM 2015</t>
+  </si>
+  <si>
+    <t>Mar 23, 2015 - Mar 25, 2015</t>
+  </si>
+  <si>
+    <t>NDSS 2015</t>
+  </si>
+  <si>
+    <t>Aug 1, 2014</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>New Orleans, LA, USA</t>
+  </si>
+  <si>
+    <t>Sep 26, 2014 (Sep 19, 2014)</t>
+  </si>
+  <si>
+    <t>May 16, 2014</t>
+  </si>
+  <si>
+    <t>Jun 12, 2015 - Jun 20, 2015</t>
+  </si>
+  <si>
+    <t>ICNP 2013</t>
+  </si>
+  <si>
+    <t>MSWiM  2014</t>
+  </si>
+  <si>
+    <t>GLOBECOM 2014</t>
+  </si>
+  <si>
+    <t>May 13, 2013 (May 6, 2013)</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Sep 8, 2014 - Sep 11, 2014</t>
+  </si>
+  <si>
+    <t>Nov 1, 2014</t>
+  </si>
+  <si>
+    <t>May 20, 2015 - May 22, 2015</t>
+  </si>
+  <si>
+    <t>SECON 2014</t>
+  </si>
+  <si>
+    <t>Jun 30, 2014 - Jul 3, 2014</t>
+  </si>
+  <si>
+    <t>MobiSys 2015</t>
+  </si>
+  <si>
+    <t>Nov 29, 2013 (Nov 22, 2013)</t>
+  </si>
+  <si>
+    <t>Austin, TX, USA</t>
+  </si>
+  <si>
+    <t>Dec 8, 2014 (Dec 1, 2014)</t>
+  </si>
+  <si>
+    <t>WiSec 2014</t>
+  </si>
+  <si>
+    <t>GÃ¶ttingen, Germany</t>
+  </si>
+  <si>
+    <t>WCNC 2015</t>
+  </si>
+  <si>
+    <t>ICDCS 2014</t>
+  </si>
+  <si>
+    <t>Oxford, United Kingdom</t>
+  </si>
+  <si>
     <t>Chicago</t>
   </si>
   <si>
-    <t>Montreal  Canada</t>
-  </si>
-  <si>
-    <t>VTC 2015</t>
-  </si>
-  <si>
-    <t>Philadelphia, PA, USA</t>
-  </si>
-  <si>
-    <t>Dec 13, 2013 (Dec 6, 2013)</t>
-  </si>
-  <si>
-    <t>Mar 10, 2014 (Mar 5, 2014)</t>
-  </si>
-  <si>
-    <t>Maui, HI, USA</t>
-  </si>
-  <si>
-    <t>San Diego, USA</t>
-  </si>
-  <si>
-    <t>Aug 17, 2014 - Aug 22, 2014</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>st. Louis Missouri, USA</t>
-  </si>
-  <si>
-    <t>Oct 1, 2014</t>
-  </si>
-  <si>
-    <t>Sep 7, 2014 - Sep 11, 2014</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Florence, Italy</t>
-  </si>
-  <si>
-    <t>MobiHoc 2014</t>
-  </si>
-  <si>
-    <t>Jul 30, 2014 (Jul 23, 2014)</t>
-  </si>
-  <si>
-    <t>CCS 2014</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>SIGCOMM 2014</t>
-  </si>
-  <si>
-    <t>Mar 10, 2014 (Mar 3, 2014)</t>
-  </si>
-  <si>
-    <t>Mar 9, 2015 - Mar 12, 2015</t>
-  </si>
-  <si>
-    <t>Oct 7, 2013 - Oct 11, 2013</t>
-  </si>
-  <si>
-    <t>Jan 31, 2014 (Jan 24, 2014)</t>
-  </si>
-  <si>
-    <t>Jun 8, 2015 - Jun 12, 2015</t>
-  </si>
-  <si>
-    <t>INFOCOM 2015</t>
-  </si>
-  <si>
-    <t>Sep 21, 2014 - Sep 26, 2014</t>
-  </si>
-  <si>
-    <t>Dec 5, 2014 (Nov 28, 2014)</t>
-  </si>
-  <si>
-    <t>Sep 30, 2014</t>
-  </si>
-  <si>
-    <t>London, UK</t>
-  </si>
-  <si>
-    <t>Aug 18, 2014 - Aug 21, 2014</t>
-  </si>
-  <si>
-    <t>May 10, 2015 - May 13, 2015</t>
-  </si>
-  <si>
-    <t>Aug 24, 2014</t>
-  </si>
-  <si>
-    <t>Madrid, Spain</t>
-  </si>
-  <si>
-    <t>Apr 26, 2015 - May 1, 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scottsdale, Arizona, USA </t>
-  </si>
-  <si>
-    <t>Portland, USA</t>
-  </si>
-  <si>
-    <t>May 5, 2014 (Apr 25, 2014)</t>
-  </si>
-  <si>
-    <t>Apr 1, 2014</t>
-  </si>
-  <si>
-    <t>PERCOM 2015</t>
-  </si>
-  <si>
-    <t>Mar 23, 2015 - Mar 25, 2015</t>
-  </si>
-  <si>
-    <t>NDSS 2015</t>
-  </si>
-  <si>
-    <t>Aug 1, 2014</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>New Orleans, LA, USA</t>
-  </si>
-  <si>
-    <t>Jan 17, 2014 (Jan 10, 2014)</t>
-  </si>
-  <si>
-    <t>Sep 26, 2014 (Sep 19, 2014)</t>
-  </si>
-  <si>
-    <t>May 16, 2014</t>
-  </si>
-  <si>
-    <t>Jun 12, 2015 - Jun 20, 2015</t>
-  </si>
-  <si>
-    <t>ICNP 2013</t>
-  </si>
-  <si>
-    <t>MSWiM  2014</t>
-  </si>
-  <si>
-    <t>GLOBECOM 2014</t>
-  </si>
-  <si>
-    <t>May 13, 2013 (May 6, 2013)</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Sep 8, 2014 - Sep 11, 2014</t>
-  </si>
-  <si>
-    <t>Nov 1, 2014</t>
-  </si>
-  <si>
-    <t>May 20, 2015 - May 22, 2015</t>
-  </si>
-  <si>
-    <t>SECON 2014</t>
-  </si>
-  <si>
-    <t>Jun 30, 2014 - Jul 3, 2014</t>
-  </si>
-  <si>
-    <t>MobiSys 2015</t>
-  </si>
-  <si>
-    <t>Nov 29, 2013 (Nov 22, 2013)</t>
-  </si>
-  <si>
-    <t>Austin, TX, USA</t>
-  </si>
-  <si>
-    <t>WiSec 2014</t>
-  </si>
-  <si>
-    <t>GÃ¶ttingen, Germany</t>
-  </si>
-  <si>
-    <t>WCNC 2015</t>
-  </si>
-  <si>
-    <t>ICDCS 2014</t>
-  </si>
-  <si>
-    <t>Oxford, United Kingdom</t>
-  </si>
-  <si>
-    <t>Deadline</t>
-  </si>
-  <si>
     <t>ICC 2015</t>
   </si>
   <si>
@@ -249,6 +243,9 @@
   </si>
   <si>
     <t>Jul 21, 2014 - Jul 25, 2014</t>
+  </si>
+  <si>
+    <t>Hangzhou, China</t>
   </si>
   <si>
     <t>Feb 8, 2015 - Feb 11, 2015</t>
@@ -616,27 +613,27 @@
         <v>0</v>
       </c>
       <c s="1" t="s" r="B1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c s="1" t="s" r="C1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c s="1" t="s" r="D1">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row spans="1:4" r="2">
       <c t="s" r="A2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c t="s" r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C2">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c t="s" r="D2">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row spans="1:4" r="3">
@@ -644,136 +641,136 @@
         <v>3</v>
       </c>
       <c t="s" r="B3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c t="s" r="C3">
         <v>11</v>
       </c>
       <c t="s" r="D3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row spans="1:4" r="4">
       <c t="s" r="A4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c t="s" r="B4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="C4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c t="s" r="D4">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row spans="1:4" r="5">
       <c t="s" r="A5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c t="s" r="B5">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c t="s" r="C5">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c t="s" r="D5">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row spans="1:4" r="6">
       <c t="s" r="A6">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="B6">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="C6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c t="s" r="D6">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row spans="1:4" r="7">
       <c t="s" r="A7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="B7">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c t="s" r="C7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="D7">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row spans="1:4" r="8">
       <c t="s" r="A8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c t="s" r="B8">
         <v>1</v>
       </c>
       <c t="s" r="C8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="D8">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row spans="1:4" r="9">
       <c t="s" r="A9">
+        <v>51</v>
+      </c>
+      <c t="s" r="B9">
+        <v>24</v>
+      </c>
+      <c t="s" r="C9">
+        <v>66</v>
+      </c>
+      <c t="s" r="D9">
         <v>54</v>
-      </c>
-      <c t="s" r="B9">
-        <v>27</v>
-      </c>
-      <c t="s" r="C9">
-        <v>68</v>
-      </c>
-      <c t="s" r="D9">
-        <v>57</v>
       </c>
     </row>
     <row spans="1:4" r="10">
       <c t="s" r="A10">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="B10">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="C10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="D10">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row spans="1:4" r="11">
       <c t="s" r="A11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="B11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="C11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="D11">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row spans="1:4" r="12">
       <c t="s" r="A12">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="B12">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="C12">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c t="s" r="D12">
         <v>9</v>
@@ -784,10 +781,10 @@
         <v>4</v>
       </c>
       <c t="s" r="B13">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c t="s" r="C13">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="D13">
         <v>2</v>
@@ -795,86 +792,86 @@
     </row>
     <row spans="1:4" r="14">
       <c t="s" r="A14">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="B14">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="C14">
         <v>12</v>
       </c>
       <c t="s" r="D14">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row spans="1:4" r="15">
       <c t="s" r="A15">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="B15">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c t="s" r="C15">
         <v>6</v>
       </c>
       <c t="s" r="D15">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row spans="1:4" r="16">
       <c t="s" r="A16">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="B16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c t="s" r="C16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="D16">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row spans="1:4" r="17">
       <c t="s" r="A17">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="B17">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="C17">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="D17">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row spans="1:4" r="18">
       <c t="s" r="A18">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="B18">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c t="s" r="C18">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="D18">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row spans="1:4" r="19">
       <c t="s" r="A19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="B19">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="C19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c t="s" r="D19">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row spans="1:4" r="20">
@@ -882,13 +879,13 @@
         <v>7</v>
       </c>
       <c t="s" r="B20">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c t="s" r="C20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c t="s" r="D20">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
